--- a/Model/ARPA generators.xlsx
+++ b/Model/ARPA generators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12370" windowHeight="3420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12370" windowHeight="3420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data_genparams" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="471">
   <si>
     <t>name</t>
   </si>
@@ -1436,6 +1436,9 @@
   </si>
   <si>
     <t>slack</t>
+  </si>
+  <si>
+    <t>heat_rate</t>
   </si>
 </sst>
 </file>
@@ -1789,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1812,24 +1815,27 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1856,7 +1862,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H2">
-        <v>14462</v>
+        <v>329.025257787106</v>
       </c>
       <c r="I2">
         <v>14462</v>
@@ -1894,7 +1900,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H3">
-        <v>14490</v>
+        <v>329.66228635978268</v>
       </c>
       <c r="I3">
         <v>14490</v>
@@ -1932,7 +1938,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H4">
-        <v>87192</v>
+        <v>1983.706975312778</v>
       </c>
       <c r="I4">
         <v>87192</v>
@@ -1970,7 +1976,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H5">
-        <v>87192</v>
+        <v>1983.706975312773</v>
       </c>
       <c r="I5">
         <v>87192</v>
@@ -2008,7 +2014,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H6">
-        <v>525</v>
+        <v>11.94428573767326</v>
       </c>
       <c r="I6">
         <v>525</v>
@@ -2046,7 +2052,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H7">
-        <v>525</v>
+        <v>11.94428573767326</v>
       </c>
       <c r="I7">
         <v>525</v>
@@ -2084,7 +2090,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H8">
-        <v>525</v>
+        <v>11.94428573767326</v>
       </c>
       <c r="I8">
         <v>525</v>
@@ -2122,7 +2128,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H9">
-        <v>525</v>
+        <v>11.94428573767326</v>
       </c>
       <c r="I9">
         <v>525</v>
@@ -2160,7 +2166,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H10">
-        <v>700</v>
+        <v>15.925714316897711</v>
       </c>
       <c r="I10">
         <v>700</v>
@@ -2198,7 +2204,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H11">
-        <v>875</v>
+        <v>19.907142896122071</v>
       </c>
       <c r="I11">
         <v>875</v>
@@ -2236,7 +2242,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H12">
-        <v>4018</v>
+        <v>91.413600178995253</v>
       </c>
       <c r="I12">
         <v>4018</v>
@@ -2274,7 +2280,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H13">
-        <v>4018</v>
+        <v>91.413600178992837</v>
       </c>
       <c r="I13">
         <v>4018</v>
@@ -2312,7 +2318,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H14">
-        <v>11424</v>
+        <v>259.90765765177099</v>
       </c>
       <c r="I14">
         <v>11424</v>
@@ -2350,7 +2356,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H15">
-        <v>11424</v>
+        <v>259.90765765177059</v>
       </c>
       <c r="I15">
         <v>11424</v>
@@ -2388,7 +2394,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H16">
-        <v>19040</v>
+        <v>433.17942941961792</v>
       </c>
       <c r="I16">
         <v>19040</v>
@@ -2426,7 +2432,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H17">
-        <v>19460</v>
+        <v>442.73485800975641</v>
       </c>
       <c r="I17">
         <v>19460</v>
@@ -2464,7 +2470,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H18">
-        <v>19040</v>
+        <v>433.17942941961729</v>
       </c>
       <c r="I18">
         <v>19040</v>
@@ -2502,7 +2508,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H19">
-        <v>43470</v>
+        <v>988.98685907934851</v>
       </c>
       <c r="I19">
         <v>43470</v>
@@ -2540,7 +2546,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H20">
-        <v>63665</v>
+        <v>1448.443717121846</v>
       </c>
       <c r="I20">
         <v>63665</v>
@@ -2578,7 +2584,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H21">
-        <v>24395</v>
+        <v>555.01114394388412</v>
       </c>
       <c r="I21">
         <v>24395</v>
@@ -2616,7 +2622,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H22">
-        <v>24395</v>
+        <v>555.01114394388446</v>
       </c>
       <c r="I22">
         <v>24395</v>
@@ -2654,7 +2660,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H23">
-        <v>49770</v>
+        <v>1132.318287931427</v>
       </c>
       <c r="I23">
         <v>49770</v>
@@ -2692,7 +2698,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H24">
-        <v>49770</v>
+        <v>1132.318287931427</v>
       </c>
       <c r="I24">
         <v>49770</v>
@@ -2730,7 +2736,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H25">
-        <v>53424</v>
+        <v>1215.450516665634</v>
       </c>
       <c r="I25">
         <v>53424</v>
@@ -2768,7 +2774,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H26">
-        <v>28756</v>
+        <v>654.22834413815815</v>
       </c>
       <c r="I26">
         <v>28756</v>
@@ -2806,7 +2812,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H27">
-        <v>45990</v>
+        <v>1046.319430620181</v>
       </c>
       <c r="I27">
         <v>45990</v>
@@ -2844,7 +2850,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H28">
-        <v>52164</v>
+        <v>1186.7842308952161</v>
       </c>
       <c r="I28">
         <v>52164</v>
@@ -2882,7 +2888,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H29">
-        <v>52164</v>
+        <v>1186.7842308952179</v>
       </c>
       <c r="I29">
         <v>52164</v>
@@ -2920,7 +2926,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H30">
-        <v>1960</v>
+        <v>44.59200008731338</v>
       </c>
       <c r="I30">
         <v>1960</v>
@@ -2958,7 +2964,7 @@
         <v>2</v>
       </c>
       <c r="H31">
-        <v>3780</v>
+        <v>85.99885731124786</v>
       </c>
       <c r="I31">
         <v>3780</v>
@@ -2996,7 +3002,7 @@
         <v>2</v>
       </c>
       <c r="H32">
-        <v>6020</v>
+        <v>136.96114312532001</v>
       </c>
       <c r="I32">
         <v>6020</v>
@@ -3034,7 +3040,7 @@
         <v>2</v>
       </c>
       <c r="H33">
-        <v>2800</v>
+        <v>63.702857267590957</v>
       </c>
       <c r="I33">
         <v>2800</v>
@@ -3072,7 +3078,7 @@
         <v>2</v>
       </c>
       <c r="H34">
-        <v>1225</v>
+        <v>26.930714914345049</v>
       </c>
       <c r="I34">
         <v>1225</v>
@@ -3110,7 +3116,7 @@
         <v>2</v>
       </c>
       <c r="H35">
-        <v>1225</v>
+        <v>26.930714914313871</v>
       </c>
       <c r="I35">
         <v>1225</v>
@@ -3148,7 +3154,7 @@
         <v>2</v>
       </c>
       <c r="H36">
-        <v>1225</v>
+        <v>26.930714914313871</v>
       </c>
       <c r="I36">
         <v>1225</v>
@@ -3186,7 +3192,7 @@
         <v>2</v>
       </c>
       <c r="H37">
-        <v>1225</v>
+        <v>26.930714914313871</v>
       </c>
       <c r="I37">
         <v>1225</v>
@@ -3224,7 +3230,7 @@
         <v>2</v>
       </c>
       <c r="H38">
-        <v>2779</v>
+        <v>61.094250405649682</v>
       </c>
       <c r="I38">
         <v>2779</v>
@@ -3262,7 +3268,7 @@
         <v>2</v>
       </c>
       <c r="H39">
-        <v>2779</v>
+        <v>61.094250405649142</v>
       </c>
       <c r="I39">
         <v>2779</v>
@@ -3300,7 +3306,7 @@
         <v>2</v>
       </c>
       <c r="H40">
-        <v>2926</v>
+        <v>64.325936195368698</v>
       </c>
       <c r="I40">
         <v>2926</v>
@@ -3338,7 +3344,7 @@
         <v>2</v>
       </c>
       <c r="H41">
-        <v>2926</v>
+        <v>64.325936195369067</v>
       </c>
       <c r="I41">
         <v>2926</v>
@@ -3376,7 +3382,7 @@
         <v>2</v>
       </c>
       <c r="H42">
-        <v>126</v>
+        <v>2.7700163911881179</v>
       </c>
       <c r="I42">
         <v>126</v>
@@ -3414,7 +3420,7 @@
         <v>2</v>
       </c>
       <c r="H43">
-        <v>126</v>
+        <v>2.7700163911881241</v>
       </c>
       <c r="I43">
         <v>126</v>
@@ -3452,7 +3458,7 @@
         <v>2</v>
       </c>
       <c r="H44">
-        <v>126</v>
+        <v>2.7700163911881241</v>
       </c>
       <c r="I44">
         <v>126</v>
@@ -3490,7 +3496,7 @@
         <v>2</v>
       </c>
       <c r="H45">
-        <v>70</v>
+        <v>1.5388979951045161</v>
       </c>
       <c r="I45">
         <v>70</v>
@@ -3528,7 +3534,7 @@
         <v>2</v>
       </c>
       <c r="H46">
-        <v>210</v>
+        <v>4.6166939853135256</v>
       </c>
       <c r="I46">
         <v>210</v>
@@ -3566,7 +3572,7 @@
         <v>2</v>
       </c>
       <c r="H47">
-        <v>210</v>
+        <v>4.6166939853135256</v>
       </c>
       <c r="I47">
         <v>210</v>
@@ -3604,7 +3610,7 @@
         <v>2</v>
       </c>
       <c r="H48">
-        <v>210</v>
+        <v>4.6166939853135256</v>
       </c>
       <c r="I48">
         <v>210</v>
@@ -3642,7 +3648,7 @@
         <v>2</v>
       </c>
       <c r="H49">
-        <v>210</v>
+        <v>4.6166939853135256</v>
       </c>
       <c r="I49">
         <v>210</v>
@@ -3680,7 +3686,7 @@
         <v>2</v>
       </c>
       <c r="H50">
-        <v>210</v>
+        <v>4.6166939853135256</v>
       </c>
       <c r="I50">
         <v>210</v>
@@ -3718,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="H51">
-        <v>91</v>
+        <v>2.000567393635849</v>
       </c>
       <c r="I51">
         <v>91</v>
@@ -3756,7 +3762,7 @@
         <v>2</v>
       </c>
       <c r="H52">
-        <v>70</v>
+        <v>1.5388979951045161</v>
       </c>
       <c r="I52">
         <v>70</v>
@@ -3794,7 +3800,7 @@
         <v>2</v>
       </c>
       <c r="H53">
-        <v>70</v>
+        <v>1.5388979951045161</v>
       </c>
       <c r="I53">
         <v>70</v>
@@ -3832,7 +3838,7 @@
         <v>2</v>
       </c>
       <c r="H54">
-        <v>126</v>
+        <v>2.7700163911881202</v>
       </c>
       <c r="I54">
         <v>126</v>
@@ -3870,7 +3876,7 @@
         <v>2</v>
       </c>
       <c r="H55">
-        <v>154</v>
+        <v>3.3855755892299211</v>
       </c>
       <c r="I55">
         <v>154</v>
@@ -3908,7 +3914,7 @@
         <v>2</v>
       </c>
       <c r="H56">
-        <v>154</v>
+        <v>3.3855755892299468</v>
       </c>
       <c r="I56">
         <v>154</v>
@@ -3946,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="H57">
-        <v>21</v>
+        <v>0.46166939853135369</v>
       </c>
       <c r="I57">
         <v>21</v>
@@ -3984,7 +3990,7 @@
         <v>2</v>
       </c>
       <c r="H58">
-        <v>77</v>
+        <v>1.6927877946149641</v>
       </c>
       <c r="I58">
         <v>77</v>
@@ -4022,7 +4028,7 @@
         <v>2</v>
       </c>
       <c r="H59">
-        <v>84</v>
+        <v>1.846677594125417</v>
       </c>
       <c r="I59">
         <v>84</v>
@@ -4060,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="H60">
-        <v>70</v>
+        <v>1.538897995104511</v>
       </c>
       <c r="I60">
         <v>70</v>
@@ -4098,7 +4104,7 @@
         <v>2</v>
       </c>
       <c r="H61">
-        <v>84</v>
+        <v>1.846677594125417</v>
       </c>
       <c r="I61">
         <v>84</v>
@@ -4136,7 +4142,7 @@
         <v>2</v>
       </c>
       <c r="H62">
-        <v>7</v>
+        <v>0.15388979951045101</v>
       </c>
       <c r="I62">
         <v>7</v>
@@ -4174,7 +4180,7 @@
         <v>2</v>
       </c>
       <c r="H63">
-        <v>21</v>
+        <v>0.46166939853135369</v>
       </c>
       <c r="I63">
         <v>21</v>
@@ -4212,7 +4218,7 @@
         <v>2</v>
       </c>
       <c r="H64">
-        <v>126</v>
+        <v>2.7700163911881188</v>
       </c>
       <c r="I64">
         <v>126</v>
@@ -4250,7 +4256,7 @@
         <v>2</v>
       </c>
       <c r="H65">
-        <v>126</v>
+        <v>2.7700163911881188</v>
       </c>
       <c r="I65">
         <v>126</v>
@@ -4288,7 +4294,7 @@
         <v>2</v>
       </c>
       <c r="H66">
-        <v>126</v>
+        <v>2.7700163911881188</v>
       </c>
       <c r="I66">
         <v>126</v>
@@ -4326,7 +4332,7 @@
         <v>2</v>
       </c>
       <c r="H67">
-        <v>84</v>
+        <v>1.8466775941254161</v>
       </c>
       <c r="I67">
         <v>84</v>
@@ -4364,7 +4370,7 @@
         <v>2</v>
       </c>
       <c r="H68">
-        <v>84</v>
+        <v>1.8466775941254241</v>
       </c>
       <c r="I68">
         <v>84</v>
@@ -4402,7 +4408,7 @@
         <v>2</v>
       </c>
       <c r="H69">
-        <v>126</v>
+        <v>2.7700163911881122</v>
       </c>
       <c r="I69">
         <v>126</v>
@@ -4440,7 +4446,7 @@
         <v>2</v>
       </c>
       <c r="H70">
-        <v>161</v>
+        <v>3.5394653887403851</v>
       </c>
       <c r="I70">
         <v>161</v>
@@ -4478,7 +4484,7 @@
         <v>2</v>
       </c>
       <c r="H71">
-        <v>161</v>
+        <v>3.5394653887403851</v>
       </c>
       <c r="I71">
         <v>161</v>
@@ -4516,7 +4522,7 @@
         <v>2</v>
       </c>
       <c r="H72">
-        <v>126</v>
+        <v>2.7700163911881188</v>
       </c>
       <c r="I72">
         <v>126</v>
@@ -4554,7 +4560,7 @@
         <v>2</v>
       </c>
       <c r="H73">
-        <v>126</v>
+        <v>2.7700163911881188</v>
       </c>
       <c r="I73">
         <v>126</v>
@@ -4592,7 +4598,7 @@
         <v>2</v>
       </c>
       <c r="H74">
-        <v>126</v>
+        <v>2.7700163911881188</v>
       </c>
       <c r="I74">
         <v>126</v>
@@ -4630,7 +4636,7 @@
         <v>2</v>
       </c>
       <c r="H75">
-        <v>126</v>
+        <v>2.7700163911881188</v>
       </c>
       <c r="I75">
         <v>126</v>
@@ -4668,7 +4674,7 @@
         <v>2</v>
       </c>
       <c r="H76">
-        <v>126</v>
+        <v>2.7700163911881042</v>
       </c>
       <c r="I76">
         <v>126</v>
@@ -4706,7 +4712,7 @@
         <v>2</v>
       </c>
       <c r="H77">
-        <v>126</v>
+        <v>2.7700163911881042</v>
       </c>
       <c r="I77">
         <v>126</v>
@@ -4744,7 +4750,7 @@
         <v>2</v>
       </c>
       <c r="H78">
-        <v>126</v>
+        <v>2.7700163911881042</v>
       </c>
       <c r="I78">
         <v>126</v>
@@ -4782,7 +4788,7 @@
         <v>2</v>
       </c>
       <c r="H79">
-        <v>154</v>
+        <v>3.3855755892299322</v>
       </c>
       <c r="I79">
         <v>154</v>
@@ -4820,7 +4826,7 @@
         <v>2</v>
       </c>
       <c r="H80">
-        <v>126</v>
+        <v>2.7700163911881188</v>
       </c>
       <c r="I80">
         <v>126</v>
@@ -4858,7 +4864,7 @@
         <v>2</v>
       </c>
       <c r="H81">
-        <v>126</v>
+        <v>2.7700163911881002</v>
       </c>
       <c r="I81">
         <v>126</v>
@@ -4896,7 +4902,7 @@
         <v>2</v>
       </c>
       <c r="H82">
-        <v>126</v>
+        <v>2.7700163911881219</v>
       </c>
       <c r="I82">
         <v>126</v>
@@ -4934,7 +4940,7 @@
         <v>2</v>
       </c>
       <c r="H83">
-        <v>126</v>
+        <v>2.7700163911881219</v>
       </c>
       <c r="I83">
         <v>126</v>
@@ -4972,7 +4978,7 @@
         <v>2</v>
       </c>
       <c r="H84">
-        <v>154</v>
+        <v>3.3855755892299211</v>
       </c>
       <c r="I84">
         <v>154</v>
@@ -5010,7 +5016,7 @@
         <v>2</v>
       </c>
       <c r="H85">
-        <v>154</v>
+        <v>3.3855755892299211</v>
       </c>
       <c r="I85">
         <v>154</v>
@@ -5048,7 +5054,7 @@
         <v>2</v>
       </c>
       <c r="H86">
-        <v>126</v>
+        <v>2.7700163911881188</v>
       </c>
       <c r="I86">
         <v>126</v>
@@ -5086,7 +5092,7 @@
         <v>2</v>
       </c>
       <c r="H87">
-        <v>126</v>
+        <v>2.7700163911881188</v>
       </c>
       <c r="I87">
         <v>126</v>
@@ -5124,7 +5130,7 @@
         <v>2</v>
       </c>
       <c r="H88">
-        <v>126</v>
+        <v>2.7700163911881188</v>
       </c>
       <c r="I88">
         <v>126</v>
@@ -5162,7 +5168,7 @@
         <v>2</v>
       </c>
       <c r="H89">
-        <v>126</v>
+        <v>2.7700163911881099</v>
       </c>
       <c r="I89">
         <v>126</v>
@@ -5200,7 +5206,7 @@
         <v>2</v>
       </c>
       <c r="H90">
-        <v>119</v>
+        <v>2.616126591677669</v>
       </c>
       <c r="I90">
         <v>119</v>
@@ -5238,7 +5244,7 @@
         <v>2</v>
       </c>
       <c r="H91">
-        <v>119</v>
+        <v>2.616126591677669</v>
       </c>
       <c r="I91">
         <v>119</v>
@@ -5276,7 +5282,7 @@
         <v>2</v>
       </c>
       <c r="H92">
-        <v>119</v>
+        <v>2.616126591677669</v>
       </c>
       <c r="I92">
         <v>119</v>
@@ -5314,7 +5320,7 @@
         <v>2</v>
       </c>
       <c r="H93">
-        <v>126</v>
+        <v>2.7700163911881268</v>
       </c>
       <c r="I93">
         <v>126</v>
@@ -5352,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="H94">
-        <v>126</v>
+        <v>2.770016391188121</v>
       </c>
       <c r="I94">
         <v>126</v>
@@ -5390,7 +5396,7 @@
         <v>2</v>
       </c>
       <c r="H95">
-        <v>126</v>
+        <v>2.7700163911881188</v>
       </c>
       <c r="I95">
         <v>126</v>
@@ -5428,7 +5434,7 @@
         <v>2</v>
       </c>
       <c r="H96">
-        <v>126</v>
+        <v>2.7700163911881188</v>
       </c>
       <c r="I96">
         <v>126</v>
@@ -5466,7 +5472,7 @@
         <v>2</v>
       </c>
       <c r="H97">
-        <v>84</v>
+        <v>1.846677594125415</v>
       </c>
       <c r="I97">
         <v>84</v>
@@ -5504,7 +5510,7 @@
         <v>2</v>
       </c>
       <c r="H98">
-        <v>84</v>
+        <v>1.846677594125415</v>
       </c>
       <c r="I98">
         <v>84</v>
@@ -5542,7 +5548,7 @@
         <v>2</v>
       </c>
       <c r="H99">
-        <v>210</v>
+        <v>4.6166939853135336</v>
       </c>
       <c r="I99">
         <v>210</v>
@@ -5580,7 +5586,7 @@
         <v>2</v>
       </c>
       <c r="H100">
-        <v>126</v>
+        <v>2.7700163911881188</v>
       </c>
       <c r="I100">
         <v>126</v>
@@ -5618,7 +5624,7 @@
         <v>2</v>
       </c>
       <c r="H101">
-        <v>63</v>
+        <v>1.3850081955940601</v>
       </c>
       <c r="I101">
         <v>63</v>
@@ -5656,7 +5662,7 @@
         <v>2</v>
       </c>
       <c r="H102">
-        <v>63</v>
+        <v>1.3850081955940601</v>
       </c>
       <c r="I102">
         <v>63</v>
@@ -5694,7 +5700,7 @@
         <v>2</v>
       </c>
       <c r="H103">
-        <v>84</v>
+        <v>1.8466775941254161</v>
       </c>
       <c r="I103">
         <v>84</v>
@@ -5732,7 +5738,7 @@
         <v>2</v>
       </c>
       <c r="H104">
-        <v>84</v>
+        <v>1.8466775941254161</v>
       </c>
       <c r="I104">
         <v>84</v>
@@ -5770,7 +5776,7 @@
         <v>2</v>
       </c>
       <c r="H105">
-        <v>126</v>
+        <v>2.7700163911881188</v>
       </c>
       <c r="I105">
         <v>126</v>
@@ -5808,7 +5814,7 @@
         <v>2</v>
       </c>
       <c r="H106">
-        <v>105</v>
+        <v>2.3083469926567659</v>
       </c>
       <c r="I106">
         <v>105</v>
@@ -5846,7 +5852,7 @@
         <v>2</v>
       </c>
       <c r="H107">
-        <v>105</v>
+        <v>2.3083469926567659</v>
       </c>
       <c r="I107">
         <v>105</v>
@@ -5884,7 +5890,7 @@
         <v>2</v>
       </c>
       <c r="H108">
-        <v>105</v>
+        <v>2.3083469926567659</v>
       </c>
       <c r="I108">
         <v>105</v>
@@ -5922,7 +5928,7 @@
         <v>2</v>
       </c>
       <c r="H109">
-        <v>105</v>
+        <v>2.3083469926567659</v>
       </c>
       <c r="I109">
         <v>105</v>
@@ -5960,7 +5966,7 @@
         <v>2</v>
       </c>
       <c r="H110">
-        <v>105</v>
+        <v>2.3083469926567659</v>
       </c>
       <c r="I110">
         <v>105</v>
@@ -5998,7 +6004,7 @@
         <v>2</v>
       </c>
       <c r="H111">
-        <v>105</v>
+        <v>2.3083469926567659</v>
       </c>
       <c r="I111">
         <v>105</v>
@@ -6036,7 +6042,7 @@
         <v>2</v>
       </c>
       <c r="H112">
-        <v>105</v>
+        <v>2.3083469926567659</v>
       </c>
       <c r="I112">
         <v>105</v>
@@ -6074,7 +6080,7 @@
         <v>2</v>
       </c>
       <c r="H113">
-        <v>105</v>
+        <v>2.3083469926567659</v>
       </c>
       <c r="I113">
         <v>105</v>
@@ -6112,7 +6118,7 @@
         <v>2</v>
       </c>
       <c r="H114">
-        <v>105</v>
+        <v>2.3083469926567659</v>
       </c>
       <c r="I114">
         <v>105</v>
@@ -6150,7 +6156,7 @@
         <v>2</v>
       </c>
       <c r="H115">
-        <v>105</v>
+        <v>2.3083469926567659</v>
       </c>
       <c r="I115">
         <v>105</v>
@@ -6188,7 +6194,7 @@
         <v>2</v>
       </c>
       <c r="H116">
-        <v>105</v>
+        <v>2.3083469926567659</v>
       </c>
       <c r="I116">
         <v>105</v>
@@ -6226,7 +6232,7 @@
         <v>2</v>
       </c>
       <c r="H117">
-        <v>105</v>
+        <v>2.3083469926567659</v>
       </c>
       <c r="I117">
         <v>105</v>
@@ -6264,7 +6270,7 @@
         <v>2</v>
       </c>
       <c r="H118">
-        <v>105</v>
+        <v>2.3083469926567659</v>
       </c>
       <c r="I118">
         <v>105</v>
@@ -6302,7 +6308,7 @@
         <v>2</v>
       </c>
       <c r="H119">
-        <v>105</v>
+        <v>2.3083469926567659</v>
       </c>
       <c r="I119">
         <v>105</v>
@@ -6340,7 +6346,7 @@
         <v>2</v>
       </c>
       <c r="H120">
-        <v>105</v>
+        <v>2.3083469926567659</v>
       </c>
       <c r="I120">
         <v>105</v>
@@ -6378,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="H121">
-        <v>105</v>
+        <v>2.3083469926567659</v>
       </c>
       <c r="I121">
         <v>105</v>
@@ -6416,7 +6422,7 @@
         <v>2</v>
       </c>
       <c r="H122">
-        <v>105</v>
+        <v>2.3083469926567659</v>
       </c>
       <c r="I122">
         <v>105</v>
@@ -6454,7 +6460,7 @@
         <v>2</v>
       </c>
       <c r="H123">
-        <v>105</v>
+        <v>2.3083469926567659</v>
       </c>
       <c r="I123">
         <v>105</v>
@@ -6492,7 +6498,7 @@
         <v>2</v>
       </c>
       <c r="H124">
-        <v>105</v>
+        <v>2.3083469926567659</v>
       </c>
       <c r="I124">
         <v>105</v>
@@ -6530,7 +6536,7 @@
         <v>2</v>
       </c>
       <c r="H125">
-        <v>98</v>
+        <v>2.154457193146321</v>
       </c>
       <c r="I125">
         <v>98</v>
@@ -6568,7 +6574,7 @@
         <v>2</v>
       </c>
       <c r="H126">
-        <v>98</v>
+        <v>2.154457193146321</v>
       </c>
       <c r="I126">
         <v>98</v>
@@ -6606,7 +6612,7 @@
         <v>2</v>
       </c>
       <c r="H127">
-        <v>161</v>
+        <v>3.5394653887403771</v>
       </c>
       <c r="I127">
         <v>161</v>
@@ -6644,7 +6650,7 @@
         <v>2</v>
       </c>
       <c r="H128">
-        <v>161</v>
+        <v>3.5394653887403771</v>
       </c>
       <c r="I128">
         <v>161</v>
@@ -6682,7 +6688,7 @@
         <v>2</v>
       </c>
       <c r="H129">
-        <v>161</v>
+        <v>3.5394653887403771</v>
       </c>
       <c r="I129">
         <v>161</v>
@@ -6720,7 +6726,7 @@
         <v>2</v>
       </c>
       <c r="H130">
-        <v>161</v>
+        <v>3.5394653887403771</v>
       </c>
       <c r="I130">
         <v>161</v>
@@ -6758,7 +6764,7 @@
         <v>2</v>
       </c>
       <c r="H131">
-        <v>154</v>
+        <v>3.3855755892299211</v>
       </c>
       <c r="I131">
         <v>154</v>
@@ -6796,7 +6802,7 @@
         <v>2</v>
       </c>
       <c r="H132">
-        <v>126</v>
+        <v>2.7700163911881188</v>
       </c>
       <c r="I132">
         <v>126</v>
@@ -6834,7 +6840,7 @@
         <v>2</v>
       </c>
       <c r="H133">
-        <v>140</v>
+        <v>3.0777959902090308</v>
       </c>
       <c r="I133">
         <v>140</v>
@@ -6872,7 +6878,7 @@
         <v>2</v>
       </c>
       <c r="H134">
-        <v>140</v>
+        <v>3.0777959902090308</v>
       </c>
       <c r="I134">
         <v>140</v>
@@ -6910,7 +6916,7 @@
         <v>2</v>
       </c>
       <c r="H135">
-        <v>70</v>
+        <v>1.538897995104513</v>
       </c>
       <c r="I135">
         <v>70</v>
@@ -6948,7 +6954,7 @@
         <v>2</v>
       </c>
       <c r="H136">
-        <v>70</v>
+        <v>1.538897995104513</v>
       </c>
       <c r="I136">
         <v>70</v>
@@ -6986,7 +6992,7 @@
         <v>2</v>
       </c>
       <c r="H137">
-        <v>126</v>
+        <v>2.7700163911881091</v>
       </c>
       <c r="I137">
         <v>126</v>
@@ -7024,7 +7030,7 @@
         <v>2</v>
       </c>
       <c r="H138">
-        <v>126</v>
+        <v>2.7700163911881188</v>
       </c>
       <c r="I138">
         <v>126</v>
@@ -7062,7 +7068,7 @@
         <v>2</v>
       </c>
       <c r="H139">
-        <v>70</v>
+        <v>1.538897995104515</v>
       </c>
       <c r="I139">
         <v>70</v>
@@ -7100,7 +7106,7 @@
         <v>2</v>
       </c>
       <c r="H140">
-        <v>84</v>
+        <v>1.8466775941254141</v>
       </c>
       <c r="I140">
         <v>84</v>
@@ -7138,7 +7144,7 @@
         <v>2</v>
       </c>
       <c r="H141">
-        <v>56</v>
+        <v>1.2311183960836061</v>
       </c>
       <c r="I141">
         <v>56</v>
@@ -7176,7 +7182,7 @@
         <v>3.17</v>
       </c>
       <c r="H142">
-        <v>7140</v>
+        <v>127.0241984508741</v>
       </c>
       <c r="I142">
         <v>7140</v>
@@ -7214,7 +7220,7 @@
         <v>3.17</v>
       </c>
       <c r="H143">
-        <v>7140</v>
+        <v>127.0241984508741</v>
       </c>
       <c r="I143">
         <v>7140</v>
@@ -7252,7 +7258,7 @@
         <v>3.17</v>
       </c>
       <c r="H144">
-        <v>13384</v>
+        <v>238.108105331443</v>
       </c>
       <c r="I144">
         <v>13384</v>
@@ -7290,7 +7296,7 @@
         <v>3.17</v>
       </c>
       <c r="H145">
-        <v>13384</v>
+        <v>238.108105331443</v>
       </c>
       <c r="I145">
         <v>13384</v>
@@ -7328,7 +7334,7 @@
         <v>3.17</v>
       </c>
       <c r="H146">
-        <v>22911</v>
+        <v>407.59823679383499</v>
       </c>
       <c r="I146">
         <v>22911</v>
@@ -7366,7 +7372,7 @@
         <v>3.17</v>
       </c>
       <c r="H147">
-        <v>12971</v>
+        <v>230.7606271857542</v>
       </c>
       <c r="I147">
         <v>12971</v>
@@ -7404,7 +7410,7 @@
         <v>3.17</v>
       </c>
       <c r="H148">
-        <v>12971</v>
+        <v>230.7606271857542</v>
       </c>
       <c r="I148">
         <v>12971</v>
@@ -7442,7 +7448,7 @@
         <v>3.17</v>
       </c>
       <c r="H149">
-        <v>5110</v>
+        <v>90.909475361899965</v>
       </c>
       <c r="I149">
         <v>5110</v>
@@ -7480,7 +7486,7 @@
         <v>3.17</v>
       </c>
       <c r="H150">
-        <v>2016</v>
+        <v>35.865656033187904</v>
       </c>
       <c r="I150">
         <v>2016</v>
@@ -7518,7 +7524,7 @@
         <v>3.17</v>
       </c>
       <c r="H151">
-        <v>2016</v>
+        <v>35.865656033187904</v>
       </c>
       <c r="I151">
         <v>2016</v>
@@ -7556,7 +7562,7 @@
         <v>3.17</v>
       </c>
       <c r="H152">
-        <v>2016</v>
+        <v>35.865656033187904</v>
       </c>
       <c r="I152">
         <v>2016</v>
@@ -7594,7 +7600,7 @@
         <v>3.17</v>
       </c>
       <c r="H153">
-        <v>2016</v>
+        <v>35.865656033187904</v>
       </c>
       <c r="I153">
         <v>2016</v>
@@ -7632,7 +7638,7 @@
         <v>3.17</v>
       </c>
       <c r="H154">
-        <v>2016</v>
+        <v>35.865656033187904</v>
       </c>
       <c r="I154">
         <v>2016</v>
@@ -7670,7 +7676,7 @@
         <v>3.17</v>
       </c>
       <c r="H155">
-        <v>2016</v>
+        <v>35.865656033187904</v>
       </c>
       <c r="I155">
         <v>2016</v>
@@ -7708,7 +7714,7 @@
         <v>3.17</v>
       </c>
       <c r="H156">
-        <v>22911</v>
+        <v>407.59823679383499</v>
       </c>
       <c r="I156">
         <v>22911</v>
@@ -7746,7 +7752,7 @@
         <v>3.17</v>
       </c>
       <c r="H157">
-        <v>12971</v>
+        <v>230.76062718575409</v>
       </c>
       <c r="I157">
         <v>12971</v>
@@ -7784,7 +7790,7 @@
         <v>3.17</v>
       </c>
       <c r="H158">
-        <v>12971</v>
+        <v>230.76062718575409</v>
       </c>
       <c r="I158">
         <v>12971</v>
@@ -7822,7 +7828,7 @@
         <v>3.17</v>
       </c>
       <c r="H159">
-        <v>26600</v>
+        <v>473.2274059934532</v>
       </c>
       <c r="I159">
         <v>26600</v>
@@ -7860,7 +7866,7 @@
         <v>3.17</v>
       </c>
       <c r="H160">
-        <v>12600</v>
+        <v>224.16035020742501</v>
       </c>
       <c r="I160">
         <v>12600</v>
@@ -7898,7 +7904,7 @@
         <v>3.17</v>
       </c>
       <c r="H161">
-        <v>12600</v>
+        <v>224.16035020742501</v>
       </c>
       <c r="I161">
         <v>12600</v>
@@ -7936,7 +7942,7 @@
         <v>3.17</v>
       </c>
       <c r="H162">
-        <v>12600</v>
+        <v>224.16035020742501</v>
       </c>
       <c r="I162">
         <v>12600</v>
@@ -7974,7 +7980,7 @@
         <v>3.17</v>
       </c>
       <c r="H163">
-        <v>16359</v>
+        <v>291.03485468597432</v>
       </c>
       <c r="I163">
         <v>16359</v>
@@ -8012,7 +8018,7 @@
         <v>3.17</v>
       </c>
       <c r="H164">
-        <v>21714</v>
+        <v>386.30300352412979</v>
       </c>
       <c r="I164">
         <v>21714</v>
@@ -8050,7 +8056,7 @@
         <v>3.17</v>
       </c>
       <c r="H165">
-        <v>20160</v>
+        <v>358.65656033187958</v>
       </c>
       <c r="I165">
         <v>20160</v>
@@ -8088,7 +8094,7 @@
         <v>3.17</v>
       </c>
       <c r="H166">
-        <v>15470</v>
+        <v>275.21909664356082</v>
       </c>
       <c r="I166">
         <v>15470</v>
@@ -8126,7 +8132,7 @@
         <v>3.17</v>
       </c>
       <c r="H167">
-        <v>15470</v>
+        <v>275.21909664356082</v>
       </c>
       <c r="I167">
         <v>15470</v>
@@ -8164,7 +8170,7 @@
         <v>3.17</v>
       </c>
       <c r="H168">
-        <v>13650</v>
+        <v>242.84037939137781</v>
       </c>
       <c r="I168">
         <v>13650</v>
@@ -8202,7 +8208,7 @@
         <v>3.17</v>
       </c>
       <c r="H169">
-        <v>13958</v>
+        <v>248.3198546186704</v>
       </c>
       <c r="I169">
         <v>13958</v>
@@ -8240,7 +8246,7 @@
         <v>3.17</v>
       </c>
       <c r="H170">
-        <v>13958</v>
+        <v>248.3198546186704</v>
       </c>
       <c r="I170">
         <v>13958</v>
@@ -8278,7 +8284,7 @@
         <v>3.17</v>
       </c>
       <c r="H171">
-        <v>13685</v>
+        <v>243.46304703084209</v>
       </c>
       <c r="I171">
         <v>13685</v>
@@ -8316,7 +8322,7 @@
         <v>3.17</v>
       </c>
       <c r="H172">
-        <v>18977</v>
+        <v>337.6103941179602</v>
       </c>
       <c r="I172">
         <v>18977</v>
@@ -8354,7 +8360,7 @@
         <v>3.17</v>
       </c>
       <c r="H173">
-        <v>13384</v>
+        <v>238.108105331443</v>
       </c>
       <c r="I173">
         <v>13384</v>
@@ -8392,7 +8398,7 @@
         <v>3.17</v>
       </c>
       <c r="H174">
-        <v>13958</v>
+        <v>248.3198546186704</v>
       </c>
       <c r="I174">
         <v>13958</v>
@@ -8430,7 +8436,7 @@
         <v>3.17</v>
       </c>
       <c r="H175">
-        <v>13958</v>
+        <v>248.3198546186704</v>
       </c>
       <c r="I175">
         <v>13958</v>
@@ -8468,7 +8474,7 @@
         <v>3.17</v>
       </c>
       <c r="H176">
-        <v>13384</v>
+        <v>238.108105331443</v>
       </c>
       <c r="I176">
         <v>13384</v>
@@ -8506,7 +8512,7 @@
         <v>3.17</v>
       </c>
       <c r="H177">
-        <v>4011</v>
+        <v>88.178855119488475</v>
       </c>
       <c r="I177">
         <v>4011</v>
@@ -8544,7 +8550,7 @@
         <v>3.17</v>
       </c>
       <c r="H178">
-        <v>4011</v>
+        <v>88.178855119488475</v>
       </c>
       <c r="I178">
         <v>4011</v>
@@ -8582,7 +8588,7 @@
         <v>3.17</v>
       </c>
       <c r="H179">
-        <v>4011</v>
+        <v>88.178855119488475</v>
       </c>
       <c r="I179">
         <v>4011</v>
@@ -8620,7 +8626,7 @@
         <v>3.17</v>
       </c>
       <c r="H180">
-        <v>4011</v>
+        <v>88.178855119488475</v>
       </c>
       <c r="I180">
         <v>4011</v>
@@ -8658,7 +8664,7 @@
         <v>3.17</v>
       </c>
       <c r="H181">
-        <v>4011</v>
+        <v>88.178855119488475</v>
       </c>
       <c r="I181">
         <v>4011</v>
@@ -8696,7 +8702,7 @@
         <v>3.17</v>
       </c>
       <c r="H182">
-        <v>4011</v>
+        <v>88.178855119488475</v>
       </c>
       <c r="I182">
         <v>4011</v>
@@ -8734,7 +8740,7 @@
         <v>3.17</v>
       </c>
       <c r="H183">
-        <v>1260</v>
+        <v>27.700163911881141</v>
       </c>
       <c r="I183">
         <v>1260</v>
@@ -8772,7 +8778,7 @@
         <v>3.17</v>
       </c>
       <c r="H184">
-        <v>1225</v>
+        <v>26.930714914328931</v>
       </c>
       <c r="I184">
         <v>1225</v>
@@ -8810,7 +8816,7 @@
         <v>3.17</v>
       </c>
       <c r="H185">
-        <v>1190</v>
+        <v>26.16126591677688</v>
       </c>
       <c r="I185">
         <v>1190</v>
@@ -8848,7 +8854,7 @@
         <v>3.17</v>
       </c>
       <c r="H186">
-        <v>14819</v>
+        <v>325.78470556362538</v>
       </c>
       <c r="I186">
         <v>14819</v>
@@ -8886,7 +8892,7 @@
         <v>3.17</v>
       </c>
       <c r="H187">
-        <v>14826</v>
+        <v>325.93859536313607</v>
       </c>
       <c r="I187">
         <v>14826</v>
@@ -8924,7 +8930,7 @@
         <v>3.17</v>
       </c>
       <c r="H188">
-        <v>2016</v>
+        <v>44.32026225900983</v>
       </c>
       <c r="I188">
         <v>2016</v>
@@ -8962,7 +8968,7 @@
         <v>3.17</v>
       </c>
       <c r="H189">
-        <v>2016</v>
+        <v>44.320262259009908</v>
       </c>
       <c r="I189">
         <v>2016</v>
@@ -9000,7 +9006,7 @@
         <v>3.17</v>
       </c>
       <c r="H190">
-        <v>12880</v>
+        <v>283.15723109923078</v>
       </c>
       <c r="I190">
         <v>12880</v>
@@ -9038,7 +9044,7 @@
         <v>3.17</v>
       </c>
       <c r="H191">
-        <v>12880</v>
+        <v>283.15723109922919</v>
       </c>
       <c r="I191">
         <v>12880</v>
@@ -9076,7 +9082,7 @@
         <v>3.17</v>
       </c>
       <c r="H192">
-        <v>12880</v>
+        <v>283.15723109922982</v>
       </c>
       <c r="I192">
         <v>12880</v>
@@ -9114,7 +9120,7 @@
         <v>3.17</v>
       </c>
       <c r="H193">
-        <v>12880</v>
+        <v>283.15723109922988</v>
       </c>
       <c r="I193">
         <v>12880</v>
@@ -9152,7 +9158,7 @@
         <v>3.17</v>
       </c>
       <c r="H194">
-        <v>280</v>
+        <v>6.1555919804180386</v>
       </c>
       <c r="I194">
         <v>280</v>
@@ -9190,7 +9196,7 @@
         <v>3.17</v>
       </c>
       <c r="H195">
-        <v>4011</v>
+        <v>88.178855119488475</v>
       </c>
       <c r="I195">
         <v>4011</v>
@@ -9228,7 +9234,7 @@
         <v>3.17</v>
       </c>
       <c r="H196">
-        <v>4011</v>
+        <v>88.178855119488475</v>
       </c>
       <c r="I196">
         <v>4011</v>
@@ -9266,7 +9272,7 @@
         <v>3.17</v>
       </c>
       <c r="H197">
-        <v>4011</v>
+        <v>88.178855119488475</v>
       </c>
       <c r="I197">
         <v>4011</v>
@@ -9304,7 +9310,7 @@
         <v>3.17</v>
       </c>
       <c r="H198">
-        <v>4011</v>
+        <v>88.178855119488475</v>
       </c>
       <c r="I198">
         <v>4011</v>
@@ -9342,7 +9348,7 @@
         <v>3.17</v>
       </c>
       <c r="H199">
-        <v>4011</v>
+        <v>88.178855119488475</v>
       </c>
       <c r="I199">
         <v>4011</v>
@@ -9380,7 +9386,7 @@
         <v>3.17</v>
       </c>
       <c r="H200">
-        <v>4011</v>
+        <v>88.178855119488475</v>
       </c>
       <c r="I200">
         <v>4011</v>
@@ -9418,7 +9424,7 @@
         <v>3.17</v>
       </c>
       <c r="H201">
-        <v>4235</v>
+        <v>93.10332870382291</v>
       </c>
       <c r="I201">
         <v>4235</v>
@@ -9456,7 +9462,7 @@
         <v>3.17</v>
       </c>
       <c r="H202">
-        <v>4235</v>
+        <v>93.103328703822783</v>
       </c>
       <c r="I202">
         <v>4235</v>
@@ -9494,7 +9500,7 @@
         <v>3.17</v>
       </c>
       <c r="H203">
-        <v>7672</v>
+        <v>168.66322026345421</v>
       </c>
       <c r="I203">
         <v>7672</v>
@@ -9532,7 +9538,7 @@
         <v>3.17</v>
       </c>
       <c r="H204">
-        <v>7672</v>
+        <v>168.66322026345421</v>
       </c>
       <c r="I204">
         <v>7672</v>
@@ -9570,7 +9576,7 @@
         <v>3.17</v>
       </c>
       <c r="H205">
-        <v>7672</v>
+        <v>168.66322026345469</v>
       </c>
       <c r="I205">
         <v>7672</v>
@@ -9608,7 +9614,7 @@
         <v>3.17</v>
       </c>
       <c r="H206">
-        <v>7672</v>
+        <v>168.66322026345429</v>
       </c>
       <c r="I206">
         <v>7672</v>
@@ -9646,7 +9652,7 @@
         <v>3.17</v>
       </c>
       <c r="H207">
-        <v>7672</v>
+        <v>168.6632202634546</v>
       </c>
       <c r="I207">
         <v>7672</v>
@@ -9684,7 +9690,7 @@
         <v>3.17</v>
       </c>
       <c r="H208">
-        <v>7672</v>
+        <v>168.66322026345441</v>
       </c>
       <c r="I208">
         <v>7672</v>
@@ -9722,7 +9728,7 @@
         <v>3.17</v>
       </c>
       <c r="H209">
-        <v>7672</v>
+        <v>168.66322026345421</v>
       </c>
       <c r="I209">
         <v>7672</v>
@@ -9760,7 +9766,7 @@
         <v>3.17</v>
       </c>
       <c r="H210">
-        <v>7672</v>
+        <v>168.66322026345441</v>
       </c>
       <c r="I210">
         <v>7672</v>
@@ -9798,7 +9804,7 @@
         <v>3.17</v>
       </c>
       <c r="H211">
-        <v>7672</v>
+        <v>168.66322026345509</v>
       </c>
       <c r="I211">
         <v>7672</v>
@@ -9836,7 +9842,7 @@
         <v>3.17</v>
       </c>
       <c r="H212">
-        <v>7672</v>
+        <v>168.6632202634546</v>
       </c>
       <c r="I212">
         <v>7672</v>
@@ -9874,7 +9880,7 @@
         <v>3.17</v>
       </c>
       <c r="H213">
-        <v>7672</v>
+        <v>168.6632202634548</v>
       </c>
       <c r="I213">
         <v>7672</v>
@@ -9912,7 +9918,7 @@
         <v>3.17</v>
       </c>
       <c r="H214">
-        <v>7672</v>
+        <v>168.66322026345449</v>
       </c>
       <c r="I214">
         <v>7672</v>
@@ -9950,7 +9956,7 @@
         <v>3.17</v>
       </c>
       <c r="H215">
-        <v>7672</v>
+        <v>168.66322026345429</v>
       </c>
       <c r="I215">
         <v>7672</v>
@@ -9988,7 +9994,7 @@
         <v>3.17</v>
       </c>
       <c r="H216">
-        <v>7672</v>
+        <v>168.6632202634546</v>
       </c>
       <c r="I216">
         <v>7672</v>
@@ -10026,7 +10032,7 @@
         <v>3.17</v>
       </c>
       <c r="H217">
-        <v>7672</v>
+        <v>168.66322026345469</v>
       </c>
       <c r="I217">
         <v>7672</v>
@@ -10064,7 +10070,7 @@
         <v>3.17</v>
       </c>
       <c r="H218">
-        <v>7672</v>
+        <v>168.66322026345429</v>
       </c>
       <c r="I218">
         <v>7672</v>
@@ -10102,7 +10108,7 @@
         <v>3.17</v>
       </c>
       <c r="H219">
-        <v>1050</v>
+        <v>23.083469926567631</v>
       </c>
       <c r="I219">
         <v>1050</v>
@@ -10140,7 +10146,7 @@
         <v>3.17</v>
       </c>
       <c r="H220">
-        <v>1050</v>
+        <v>23.083469926567631</v>
       </c>
       <c r="I220">
         <v>1050</v>
@@ -10178,7 +10184,7 @@
         <v>3.17</v>
       </c>
       <c r="H221">
-        <v>392</v>
+        <v>8.6178287725852787</v>
       </c>
       <c r="I221">
         <v>392</v>
@@ -10216,7 +10222,7 @@
         <v>3.17</v>
       </c>
       <c r="H222">
-        <v>392</v>
+        <v>8.6178287725852787</v>
       </c>
       <c r="I222">
         <v>392</v>
@@ -10254,7 +10260,7 @@
         <v>3.17</v>
       </c>
       <c r="H223">
-        <v>392</v>
+        <v>8.6178287725853071</v>
       </c>
       <c r="I223">
         <v>392</v>
@@ -10292,7 +10298,7 @@
         <v>3.17</v>
       </c>
       <c r="H224">
-        <v>13685</v>
+        <v>300.85455804293213</v>
       </c>
       <c r="I224">
         <v>13685</v>
@@ -10330,7 +10336,7 @@
         <v>3.17</v>
       </c>
       <c r="H225">
-        <v>13685</v>
+        <v>300.85455804293218</v>
       </c>
       <c r="I225">
         <v>13685</v>
@@ -10368,7 +10374,7 @@
         <v>3.17</v>
       </c>
       <c r="H226">
-        <v>13685</v>
+        <v>300.85455804293213</v>
       </c>
       <c r="I226">
         <v>13685</v>
@@ -10406,7 +10412,7 @@
         <v>3.17</v>
       </c>
       <c r="H227">
-        <v>13685</v>
+        <v>300.85455804293292</v>
       </c>
       <c r="I227">
         <v>13685</v>
@@ -10444,7 +10450,7 @@
         <v>3.17</v>
       </c>
       <c r="H228">
-        <v>13685</v>
+        <v>300.85455804293252</v>
       </c>
       <c r="I228">
         <v>13685</v>
@@ -10482,7 +10488,7 @@
         <v>3.17</v>
       </c>
       <c r="H229">
-        <v>13958</v>
+        <v>306.8562602238398</v>
       </c>
       <c r="I229">
         <v>13958</v>
@@ -10520,7 +10526,7 @@
         <v>3.17</v>
       </c>
       <c r="H230">
-        <v>13958</v>
+        <v>306.8562602238398</v>
       </c>
       <c r="I230">
         <v>13958</v>
@@ -10558,7 +10564,7 @@
         <v>3.17</v>
       </c>
       <c r="H231">
-        <v>13958</v>
+        <v>306.8562602238398</v>
       </c>
       <c r="I231">
         <v>13958</v>
@@ -10596,7 +10602,7 @@
         <v>3.17</v>
       </c>
       <c r="H232">
-        <v>13958</v>
+        <v>306.8562602238398</v>
       </c>
       <c r="I232">
         <v>13958</v>
@@ -10634,7 +10640,7 @@
         <v>3.17</v>
       </c>
       <c r="H233">
-        <v>13958</v>
+        <v>306.8562602238398</v>
       </c>
       <c r="I233">
         <v>13958</v>
@@ -10672,7 +10678,7 @@
         <v>3.17</v>
       </c>
       <c r="H234">
-        <v>13958</v>
+        <v>306.8562602238398</v>
       </c>
       <c r="I234">
         <v>13958</v>
@@ -10710,7 +10716,7 @@
         <v>3.17</v>
       </c>
       <c r="H235">
-        <v>13958</v>
+        <v>306.8562602238398</v>
       </c>
       <c r="I235">
         <v>13958</v>
@@ -10748,7 +10754,7 @@
         <v>3.17</v>
       </c>
       <c r="H236">
-        <v>13958</v>
+        <v>306.8562602238398</v>
       </c>
       <c r="I236">
         <v>13958</v>
@@ -10786,7 +10792,7 @@
         <v>3.17</v>
       </c>
       <c r="H237">
-        <v>13664</v>
+        <v>300.39288864439982</v>
       </c>
       <c r="I237">
         <v>13664</v>
@@ -10824,7 +10830,7 @@
         <v>3.17</v>
       </c>
       <c r="H238">
-        <v>13664</v>
+        <v>300.39288864439982</v>
       </c>
       <c r="I238">
         <v>13664</v>
@@ -10862,7 +10868,7 @@
         <v>3.17</v>
       </c>
       <c r="H239">
-        <v>13664</v>
+        <v>300.39288864439982</v>
       </c>
       <c r="I239">
         <v>13664</v>
@@ -10900,7 +10906,7 @@
         <v>3.17</v>
       </c>
       <c r="H240">
-        <v>13664</v>
+        <v>300.39288864439982</v>
       </c>
       <c r="I240">
         <v>13664</v>
@@ -10938,7 +10944,7 @@
         <v>3.17</v>
       </c>
       <c r="H241">
-        <v>13923</v>
+        <v>306.08681122628781</v>
       </c>
       <c r="I241">
         <v>13923</v>
@@ -16929,7 +16935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
